--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Pericarditis_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Pericarditis_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sharp, pleuritic chest pain</t>
+          <t>Sharp, pleuritic chest pain that improves when sitting up and leaning forward</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This type of pain is commonly associated with pericarditis due to inflammation of the pericardial sac, which can cause pain that worsens with deep breathing or coughing.</t>
+          <t>This type of chest pain is characteristic of pericarditis and is less common in other conditions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of chest trauma</t>
+          <t>Chest pain that is exertional and relieved by rest</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of chest trauma reduces the likelihood of pericarditis, as trauma can lead to pericardial inflammation.</t>
+          <t>This pattern of chest pain is more typical of angina or myocardial ischemia, not pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pain relieved by sitting forward</t>
+          <t>Recent viral infection or flu-like symptoms preceding chest pain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with pericarditis often find relief from chest pain when leaning forward, which is a characteristic symptom that supports the diagnosis.</t>
+          <t>Pericarditis often follows a viral infection, making this a supportive finding.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of fever</t>
+          <t>No recent history of viral infection or flu-like symptoms</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of fever suggests that there may not be an inflammatory process occurring, which is less consistent with pericarditis.</t>
+          <t>The absence of a preceding viral infection reduces the likelihood of pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recent viral infection</t>
+          <t>Pain radiating to the trapezius ridge</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A history of recent viral infections is a common precursor to pericarditis, as viral pathogens can lead to inflammation of the pericardium.</t>
+          <t>Radiation of pain to the trapezius ridge is more specific to pericarditis than other types of chest pain.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stable, non-radiating pain</t>
+          <t>Chest pain that does not change with position</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pain that is stable and non-radiating is less characteristic of pericarditis, which typically presents with sharp, pleuritic pain.</t>
+          <t>Lack of positional change in chest pain is less consistent with pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fever and malaise</t>
+          <t>Positional chest pain</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Systemic symptoms like fever and malaise can indicate an inflammatory process, which is consistent with pericarditis.</t>
+          <t>Chest pain that changes with position is more indicative of pericarditis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No recent infections</t>
+          <t>Chest pain that is constant and not pleuritic</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A lack of recent infections diminishes the likelihood of pericarditis, as infections are a common trigger for the condition.</t>
+          <t>Constant, non-pleuritic chest pain is less typical of pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of autoimmune disease</t>
+          <t>Recent history of autoimmune disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients with autoimmune diseases are at a higher risk for developing pericarditis, making this a relevant finding in support of the diagnosis.</t>
+          <t>Autoimmune diseases can be associated with pericarditis, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal physical examination findings</t>
+          <t>No improvement in chest pain when sitting up or leaning forward</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal findings on physical examination, particularly the absence of pericardial friction rub, suggest that pericarditis is less likely.</t>
+          <t>If the pain does not improve with sitting up or leaning forward, it is less likely to be pericarditis.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of autoimmune disease</t>
+          <t>History of recent viral infection</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Autoimmune diseases such as lupus or rheumatoid arthritis are known risk factors for pericarditis, making this finding supportive of the diagnosis.</t>
+          <t>Viral infections are a common cause of pericarditis, and a recent history increases the likelihood of this diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of cardiovascular disease</t>
+          <t>No history of chest pain or cardiac symptoms</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of cardiovascular disease history reduces the likelihood of pericarditis, as it is often associated with underlying heart conditions.</t>
+          <t>The absence of previous cardiac symptoms or chest pain reduces the likelihood of pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recent viral infection</t>
+          <t>Previous episode of pericarditis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Viral infections, particularly respiratory viruses, are common precursors to pericarditis, indicating a higher likelihood of the condition.</t>
+          <t>A history of pericarditis increases the risk of recurrence, making a new episode more likely.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of recent infections</t>
+          <t>Long-term use of anti-inflammatory medications</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of recent infections suggests a lower likelihood of viral or bacterial causes of pericarditis.</t>
+          <t>Chronic use of anti-inflammatory drugs may prevent the development of pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Previous episodes of pericarditis</t>
+          <t>Autoimmune disease history</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A history of recurrent pericarditis significantly increases the likelihood of current pericarditis, as it is often a recurring condition.</t>
+          <t>Autoimmune diseases can predispose individuals to pericarditis due to systemic inflammation.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of autoimmune disorders</t>
+          <t>History of chronic kidney disease</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Without autoimmune disorders, the risk factors for developing pericarditis are significantly diminished.</t>
+          <t>Chronic kidney disease is more commonly associated with uremic pericarditis, which is a different condition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Use of certain medications (e.g., immunosuppressants)</t>
+          <t>Recent myocardial infarction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Medications that suppress the immune system can predispose individuals to infections that may lead to pericarditis.</t>
+          <t>Post-myocardial infarction pericarditis, also known as Dressler's syndrome, can occur after a heart attack.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No previous episodes of pericarditis</t>
+          <t>No history of autoimmune or inflammatory conditions</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A lack of prior episodes indicates a lower likelihood of recurrent pericarditis, which is a common presentation.</t>
+          <t>The absence of autoimmune or inflammatory conditions reduces the risk of pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of chest trauma or surgery</t>
+          <t>Use of medications known to cause pericarditis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trauma or surgical procedures involving the chest can lead to post-surgical or post-traumatic pericarditis, supporting the diagnosis.</t>
+          <t>Certain medications can induce pericarditis as a side effect, increasing the likelihood of the condition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No recent chest trauma or surgery</t>
+          <t>History of pulmonary embolism</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of trauma or surgical history reduces the likelihood of post-traumatic or post-surgical pericarditis.</t>
+          <t>Pulmonary embolism can cause chest pain but is not typically associated with pericarditis.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recent viral infection</t>
+          <t>Family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Viral infections are a common trigger for pericarditis, making this finding supportive of the diagnosis.</t>
+          <t>Autoimmune diseases can predispose individuals to pericarditis, and a family history may indicate a genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No family history of heart disease</t>
+          <t>No family history of cardiovascular diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of family history of heart disease may suggest a lower likelihood of pericarditis, which can be associated with underlying cardiac conditions.</t>
+          <t>A lack of family history of cardiovascular diseases may reduce the likelihood of pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of autoimmune disease in family</t>
+          <t>Recent viral infection in the family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Autoimmune diseases can predispose individuals to pericarditis, suggesting a genetic component that supports the diagnosis.</t>
+          <t>Viral infections are a common cause of pericarditis, and a recent infection in the family could suggest exposure.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Non-smoker</t>
+          <t>No recent travel to endemic areas for infectious diseases</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Smoking is a risk factor for many cardiovascular diseases, and being a non-smoker may reduce the likelihood of pericarditis.</t>
+          <t>Travel to areas with high rates of infectious diseases can increase risk, so lack of travel reduces it.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recent travel to areas with endemic infections</t>
+          <t>Occupational exposure to tuberculosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain infections endemic to specific regions can lead to pericarditis, thus supporting the diagnosis if the patient has traveled to such areas.</t>
+          <t>Tuberculosis is a known cause of pericarditis, and occupational exposure increases the risk.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Regular physical activity</t>
+          <t>Healthy lifestyle with regular exercise</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Engaging in regular exercise is generally protective against cardiovascular issues, which may lower the risk of developing pericarditis.</t>
+          <t>Regular exercise and a healthy lifestyle can reduce inflammation and the risk of pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>High-stress lifestyle</t>
+          <t>Family history of pericarditis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic stress can contribute to inflammatory conditions, including pericarditis, making this finding relevant.</t>
+          <t>A direct family history of pericarditis suggests a genetic or environmental predisposition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No recent infections</t>
+          <t>No history of substance abuse</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent infections decreases the likelihood of viral or bacterial causes of pericarditis.</t>
+          <t>Substance abuse can contribute to cardiovascular issues, so its absence may lower the risk of pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of chest trauma</t>
+          <t>High-stress lifestyle</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trauma to the chest can lead to pericarditis, particularly if it results in inflammation or injury to the pericardium.</t>
+          <t>Chronic stress can contribute to inflammatory processes, potentially increasing the risk of pericarditis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stable mental health</t>
+          <t>Stable social support network</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Good mental health can correlate with lower stress levels and inflammation, which may reduce the risk of pericarditis.</t>
+          <t>A stable social support network can mitigate stress, potentially reducing the risk of pericarditis.</t>
         </is>
       </c>
     </row>
@@ -920,105 +920,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a classic finding in pericarditis, indicating inflammation of the pericardium.</t>
+          <t>A pericardial friction rub is highly specific for pericarditis, as it is caused by the inflamed pericardial layers rubbing against each other.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal heart sounds</t>
+          <t>Absence of pericardial friction rub</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal heart sounds suggest that there is no fluid accumulation or inflammation, making pericarditis less likely.</t>
+          <t>The absence of a pericardial friction rub, which is highly specific for pericarditis, makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Elevated heart rate (tachycardia)</t>
+          <t>Chest pain that improves when sitting up and leaning forward</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tachycardia is common in pericarditis due to pain and inflammation, supporting the diagnosis.</t>
+          <t>This positional change in chest pain is characteristic of pericarditis and is less common in other conditions.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of fever</t>
+          <t>Normal heart sounds</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of fever may indicate that there is no inflammatory process, which is often present in pericarditis.</t>
+          <t>Normal heart sounds without any additional rubs or murmurs suggest the absence of pericardial inflammation.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hypotension</t>
+          <t>Tachycardia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypotension can occur in cases of pericardial effusion associated with pericarditis, indicating potential hemodynamic compromise.</t>
+          <t>Tachycardia can occur due to the body's response to inflammation and pain associated with pericarditis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal blood pressure</t>
+          <t>No chest pain</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal blood pressure suggests that there is no significant hemodynamic compromise, which is often seen in pericarditis.</t>
+          <t>The absence of chest pain, especially positional pain, reduces the likelihood of pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Distended neck veins</t>
+          <t>Fever</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This finding suggests elevated central venous pressure, which can occur in pericarditis with effusion.</t>
+          <t>Fever is a common systemic response to inflammation, including pericarditis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of respiratory distress</t>
+          <t>Normal respiratory rate</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lack of respiratory distress may indicate that there is no significant cardiac or pulmonary involvement, reducing the likelihood of pericarditis.</t>
+          <t>A normal respiratory rate suggests the absence of significant discomfort or inflammation affecting the chest.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Muffled heart sounds</t>
+          <t>Pulsus paradoxus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muffled heart sounds can indicate the presence of fluid around the heart, consistent with pericarditis.</t>
+          <t>Pulsus paradoxus can occur in pericarditis, especially if there is associated cardiac tamponade.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Clear lung auscultation</t>
+          <t>No fever</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Clear lung sounds suggest that there is no pulmonary congestion or effusion, which can accompany pericarditis.</t>
+          <t>The absence of fever reduces the likelihood of an inflammatory process like pericarditis.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elevated C-reactive protein (CRP)</t>
+          <t>Electrocardiogram (ECG) showing diffuse ST-segment elevation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CRP is an acute phase reactant that is often elevated in inflammatory conditions, including pericarditis, indicating an inflammatory process.</t>
+          <t>Diffuse ST-segment elevation is a classic finding in acute pericarditis and is less commonly seen in other conditions, making it a strong indicator.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal cardiac biomarkers (e.g., troponin)</t>
+          <t>Normal ECG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal levels of cardiac biomarkers suggest that there is no significant myocardial injury, making pericarditis less likely.</t>
+          <t>A normal ECG is less likely in pericarditis, as changes such as ST-segment elevation are expected.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electrocardiogram (ECG) changes</t>
+          <t>Pericardial effusion on echocardiogram</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Typical ECG findings in pericarditis include widespread ST-segment elevation and PR-segment depression, which are indicative of pericardial inflammation.</t>
+          <t>The presence of pericardial effusion is a common finding in pericarditis and supports the diagnosis when seen on imaging.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative echocardiogram for effusion</t>
+          <t>Absence of pericardial effusion on echocardiogram</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of pericardial effusion on echocardiogram makes pericarditis unlikely, as effusion is a common finding.</t>
+          <t>The absence of pericardial effusion makes pericarditis less likely, as effusion is a common finding.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pericardial effusion on echocardiogram</t>
+          <t>Elevated C-reactive protein (CRP)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of fluid in the pericardial space is a common finding in pericarditis and supports the diagnosis.</t>
+          <t>Elevated CRP indicates inflammation, which is consistent with pericarditis, especially when correlated with other findings.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal chest X-ray</t>
+          <t>Normal CRP levels</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal chest X-ray suggests no significant cardiomegaly or effusion, which are often associated with pericarditis.</t>
+          <t>Normal CRP levels suggest a lack of inflammation, which is inconsistent with pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elevated white blood cell count (WBC)</t>
+          <t>Elevated erythrocyte sedimentation rate (ESR)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>An elevated WBC count can indicate an inflammatory or infectious process, which is consistent with pericarditis.</t>
+          <t>An elevated ESR is indicative of inflammation and supports the diagnosis of pericarditis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative viral serologies</t>
+          <t>Normal ESR</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Negative results for common viral pathogens would argue against a viral cause of pericarditis.</t>
+          <t>A normal ESR indicates no significant inflammation, which argues against pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Positive viral serologies</t>
+          <t>Pericardial friction rub heard on auscultation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Detection of viral pathogens in serologies can support a viral etiology of pericarditis, which is a common cause.</t>
+          <t>While not a test result, it is often documented in test reports and is a classic sign of pericarditis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal inflammatory markers (e.g., ESR)</t>
+          <t>Absence of pericardial friction rub</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal erythrocyte sedimentation rate (ESR) indicates a lack of systemic inflammation, making pericarditis less likely.</t>
+          <t>The absence of a pericardial friction rub, while not definitive, reduces the likelihood of pericarditis.</t>
         </is>
       </c>
     </row>
